--- a/data/Dados_Veloc_Eixos_XYZ_RefiinoCone/EditedPics/PicAnalysis.xlsx
+++ b/data/Dados_Veloc_Eixos_XYZ_RefiinoCone/EditedPics/PicAnalysis.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Dropbox\GitHub\MeshRefinementAnalysis\data\Dados_Veloc_Eixos_XYZ_RefiinoCone\EditedPics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\GridConvergeLab\data\Dados_Veloc_Eixos_XYZ_RefiinoCone\EditedPics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337037AD-C560-4474-A346-BA5CDFB76457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66048F6-CA0E-42F0-A669-258E9AF886F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28536" yWindow="252" windowWidth="23016" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,7 +37,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,14 +70,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -77,7 +98,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -204,26 +225,20 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$1:$G$6</c:f>
+              <c:f>Sheet1!$G$3:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -231,26 +246,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$1:$H$6</c:f>
+              <c:f>Sheet1!$H$3:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.42170000000000002</c:v>
+                  <c:v>0.51219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47789999999999999</c:v>
+                  <c:v>0.63249999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51219999999999999</c:v>
+                  <c:v>0.73309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63249999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73309999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.80549999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -260,6 +269,155 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9508-4B13-9A24-C7B6FA01D882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC35-4FF4-8BD6-08F35EC593AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74870000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EC35-4FF4-8BD6-08F35EC593AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1010,16 +1168,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1310,60 +1468,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G1:H6"/>
+  <dimension ref="G1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G1">
         <v>6</v>
       </c>
       <c r="H1">
         <v>0.42170000000000002</v>
       </c>
+      <c r="K1" s="1">
+        <f>(H2-$H$1)/$H$1</f>
+        <v>0.13327009722551569</v>
+      </c>
     </row>
-    <row r="2" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
         <v>0.47789999999999999</v>
       </c>
+      <c r="I2">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(H3-$H$1)/$H$1</f>
+        <v>0.21460754090585715</v>
+      </c>
     </row>
-    <row r="3" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
         <v>0.51219999999999999</v>
       </c>
+      <c r="I3">
+        <v>0.4854</v>
+      </c>
+      <c r="J3">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="K3" s="1">
+        <f>(H4-$H$1)/$H$1</f>
+        <v>0.49988143229784188</v>
+      </c>
     </row>
-    <row r="4" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
         <v>0.63249999999999995</v>
       </c>
+      <c r="I4">
+        <v>0.60170000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="K4" s="1">
+        <f>(H5-$H$1)/$H$1</f>
+        <v>0.73843964903960146</v>
+      </c>
     </row>
-    <row r="5" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
         <v>0.73309999999999997</v>
       </c>
+      <c r="I5">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <f>(H6-$H$1)/$H$1</f>
+        <v>0.91012568176428732</v>
+      </c>
     </row>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
         <v>0.80549999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.74870000000000003</v>
       </c>
     </row>
   </sheetData>
